--- a/Bank program KGS/8014 - total_output.xlsx
+++ b/Bank program KGS/8014 - total_output.xlsx
@@ -139,7 +139,7 @@
     <t>Resham Singh So Gian Singh</t>
   </si>
   <si>
-    <t>Sfms Charges Paid  Ho</t>
+    <t>Charges Paid  Ho</t>
   </si>
   <si>
     <t>Sugarcane  Payments</t>
